--- a/www/IndicatorsPerCountry/Malaysia_GDPperCapita_TerritorialRef_1965_2012_CCode_458.xlsx
+++ b/www/IndicatorsPerCountry/Malaysia_GDPperCapita_TerritorialRef_1965_2012_CCode_458.xlsx
@@ -351,13 +351,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Malaysia_GDPperCapita_TerritorialRef_1965_2012_CCode_458.xlsx
+++ b/www/IndicatorsPerCountry/Malaysia_GDPperCapita_TerritorialRef_1965_2012_CCode_458.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="134">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,292 +36,349 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>603</t>
+    <t>961</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>663</t>
-  </si>
-  <si>
-    <t>801</t>
-  </si>
-  <si>
-    <t>822</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>920</t>
-  </si>
-  <si>
-    <t>938</t>
-  </si>
-  <si>
-    <t>996</t>
-  </si>
-  <si>
-    <t>1034</t>
-  </si>
-  <si>
-    <t>969</t>
-  </si>
-  <si>
-    <t>1158</t>
-  </si>
-  <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>1075</t>
-  </si>
-  <si>
-    <t>1152</t>
-  </si>
-  <si>
-    <t>1060</t>
-  </si>
-  <si>
-    <t>1201</t>
-  </si>
-  <si>
-    <t>1316</t>
-  </si>
-  <si>
-    <t>1251</t>
-  </si>
-  <si>
-    <t>1389</t>
-  </si>
-  <si>
-    <t>1682</t>
-  </si>
-  <si>
-    <t>1636</t>
-  </si>
-  <si>
-    <t>1548</t>
-  </si>
-  <si>
-    <t>1397</t>
-  </si>
-  <si>
-    <t>1440</t>
-  </si>
-  <si>
-    <t>1540</t>
-  </si>
-  <si>
-    <t>1364</t>
-  </si>
-  <si>
-    <t>1478</t>
-  </si>
-  <si>
-    <t>1308</t>
-  </si>
-  <si>
-    <t>1361</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1278</t>
-  </si>
-  <si>
-    <t>1238</t>
-  </si>
-  <si>
-    <t>1673</t>
-  </si>
-  <si>
-    <t>1069</t>
-  </si>
-  <si>
-    <t>1185</t>
-  </si>
-  <si>
-    <t>1531</t>
-  </si>
-  <si>
-    <t>1559</t>
-  </si>
-  <si>
-    <t>1471</t>
-  </si>
-  <si>
-    <t>1490</t>
-  </si>
-  <si>
-    <t>1460</t>
-  </si>
-  <si>
-    <t>1505</t>
-  </si>
-  <si>
-    <t>1455</t>
-  </si>
-  <si>
-    <t>1413</t>
-  </si>
-  <si>
-    <t>1467</t>
-  </si>
-  <si>
-    <t>1530</t>
-  </si>
-  <si>
-    <t>1592</t>
-  </si>
-  <si>
-    <t>1637</t>
-  </si>
-  <si>
-    <t>1669</t>
-  </si>
-  <si>
-    <t>1728</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1846</t>
-  </si>
-  <si>
-    <t>1830</t>
-  </si>
-  <si>
-    <t>1942</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2079</t>
-  </si>
-  <si>
-    <t>2180</t>
-  </si>
-  <si>
-    <t>2289</t>
-  </si>
-  <si>
-    <t>2560</t>
-  </si>
-  <si>
-    <t>2688</t>
-  </si>
-  <si>
-    <t>2648</t>
-  </si>
-  <si>
-    <t>2910</t>
-  </si>
-  <si>
-    <t>3076</t>
-  </si>
-  <si>
-    <t>3271</t>
-  </si>
-  <si>
-    <t>3457</t>
-  </si>
-  <si>
-    <t>3657</t>
-  </si>
-  <si>
-    <t>3824</t>
-  </si>
-  <si>
-    <t>3954</t>
-  </si>
-  <si>
-    <t>4096</t>
-  </si>
-  <si>
-    <t>4308</t>
-  </si>
-  <si>
-    <t>4157</t>
-  </si>
-  <si>
-    <t>4105</t>
-  </si>
-  <si>
-    <t>4218</t>
-  </si>
-  <si>
-    <t>4482</t>
-  </si>
-  <si>
-    <t>4789</t>
-  </si>
-  <si>
-    <t>5130.60559344</t>
-  </si>
-  <si>
-    <t>5469.24787627</t>
-  </si>
-  <si>
-    <t>5801.76038262</t>
-  </si>
-  <si>
-    <t>6218.80644977</t>
-  </si>
-  <si>
-    <t>6621.6224706</t>
-  </si>
-  <si>
-    <t>7092.25369477</t>
-  </si>
-  <si>
-    <t>7607.99141992</t>
-  </si>
-  <si>
-    <t>7955.15146252</t>
-  </si>
-  <si>
-    <t>7178.52805644</t>
-  </si>
-  <si>
-    <t>7424.5136215</t>
-  </si>
-  <si>
-    <t>7873.52002217</t>
-  </si>
-  <si>
-    <t>7718.8755262</t>
-  </si>
-  <si>
-    <t>7952.33596428</t>
-  </si>
-  <si>
-    <t>8210.5285413</t>
-  </si>
-  <si>
-    <t>8562.69012118</t>
-  </si>
-  <si>
-    <t>8848.15404234</t>
-  </si>
-  <si>
-    <t>9179.61493888</t>
-  </si>
-  <si>
-    <t>9589.80694336</t>
-  </si>
-  <si>
-    <t>9880.32404227</t>
-  </si>
-  <si>
-    <t>9571.14988203</t>
-  </si>
-  <si>
-    <t>10094.4888176</t>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>817.743016759777</t>
+  </si>
+  <si>
+    <t>950.530726256984</t>
+  </si>
+  <si>
+    <t>1018.35754189944</t>
+  </si>
+  <si>
+    <t>881.748603351956</t>
+  </si>
+  <si>
+    <t>822.519553072626</t>
+  </si>
+  <si>
+    <t>863.597765363129</t>
+  </si>
+  <si>
+    <t>794.815642458101</t>
+  </si>
+  <si>
+    <t>852.134078212291</t>
+  </si>
+  <si>
+    <t>983.966480446928</t>
+  </si>
+  <si>
+    <t>919.005586592179</t>
+  </si>
+  <si>
+    <t>1073.76536312849</t>
+  </si>
+  <si>
+    <t>1133.94972067039</t>
+  </si>
+  <si>
+    <t>1093.82681564246</t>
+  </si>
+  <si>
+    <t>1288.7094972067</t>
+  </si>
+  <si>
+    <t>1445.37988826816</t>
+  </si>
+  <si>
+    <t>1541.86592178771</t>
+  </si>
+  <si>
+    <t>1389.01675977654</t>
+  </si>
+  <si>
+    <t>1718.59776536313</t>
+  </si>
+  <si>
+    <t>1795.02234636872</t>
+  </si>
+  <si>
+    <t>1877.17877094972</t>
+  </si>
+  <si>
+    <t>1786.42458100559</t>
+  </si>
+  <si>
+    <t>2172.3687150838</t>
+  </si>
+  <si>
+    <t>2404.50837988827</t>
+  </si>
+  <si>
+    <t>2052</t>
+  </si>
+  <si>
+    <t>2044.35754189944</t>
+  </si>
+  <si>
+    <t>1732.92737430168</t>
+  </si>
+  <si>
+    <t>2179.05586592179</t>
+  </si>
+  <si>
+    <t>2049.13407821229</t>
+  </si>
+  <si>
+    <t>2537.29608938547</t>
+  </si>
+  <si>
+    <t>3220.3407821229</t>
+  </si>
+  <si>
+    <t>3147.7374301676</t>
+  </si>
+  <si>
+    <t>3072.26815642458</t>
+  </si>
+  <si>
+    <t>2792.36312849162</t>
+  </si>
+  <si>
+    <t>2790.45251396648</t>
+  </si>
+  <si>
+    <t>2805.7374301676</t>
+  </si>
+  <si>
+    <t>2688.23463687151</t>
+  </si>
+  <si>
+    <t>2906.04469273743</t>
+  </si>
+  <si>
+    <t>3162.06703910614</t>
+  </si>
+  <si>
+    <t>2515.32402234637</t>
+  </si>
+  <si>
+    <t>2565</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>2667</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1889</t>
+  </si>
+  <si>
+    <t>2440</t>
+  </si>
+  <si>
+    <t>2485</t>
+  </si>
+  <si>
+    <t>2295</t>
+  </si>
+  <si>
+    <t>2345</t>
+  </si>
+  <si>
+    <t>2375</t>
+  </si>
+  <si>
+    <t>2327</t>
+  </si>
+  <si>
+    <t>2399</t>
+  </si>
+  <si>
+    <t>2319</t>
+  </si>
+  <si>
+    <t>2252</t>
+  </si>
+  <si>
+    <t>2338</t>
+  </si>
+  <si>
+    <t>2439</t>
+  </si>
+  <si>
+    <t>2538</t>
+  </si>
+  <si>
+    <t>2609</t>
+  </si>
+  <si>
+    <t>2660</t>
+  </si>
+  <si>
+    <t>2754</t>
+  </si>
+  <si>
+    <t>2876</t>
+  </si>
+  <si>
+    <t>2942</t>
+  </si>
+  <si>
+    <t>2917</t>
+  </si>
+  <si>
+    <t>3096</t>
+  </si>
+  <si>
+    <t>3196</t>
+  </si>
+  <si>
+    <t>3314</t>
+  </si>
+  <si>
+    <t>3475</t>
+  </si>
+  <si>
+    <t>3649</t>
+  </si>
+  <si>
+    <t>4081</t>
+  </si>
+  <si>
+    <t>4285</t>
+  </si>
+  <si>
+    <t>4221</t>
+  </si>
+  <si>
+    <t>4638</t>
+  </si>
+  <si>
+    <t>4903</t>
+  </si>
+  <si>
+    <t>5214</t>
+  </si>
+  <si>
+    <t>5510</t>
+  </si>
+  <si>
+    <t>5829</t>
+  </si>
+  <si>
+    <t>6095</t>
+  </si>
+  <si>
+    <t>6303</t>
+  </si>
+  <si>
+    <t>6529</t>
+  </si>
+  <si>
+    <t>6867</t>
+  </si>
+  <si>
+    <t>6626</t>
+  </si>
+  <si>
+    <t>6543</t>
+  </si>
+  <si>
+    <t>6723</t>
+  </si>
+  <si>
+    <t>7144</t>
+  </si>
+  <si>
+    <t>7634</t>
+  </si>
+  <si>
+    <t>8179</t>
+  </si>
+  <si>
+    <t>8781.20889310841</t>
+  </si>
+  <si>
+    <t>9383.9321554432</t>
+  </si>
+  <si>
+    <t>10131.9293376812</t>
+  </si>
+  <si>
+    <t>10867.2560991672</t>
+  </si>
+  <si>
+    <t>11725.0925392406</t>
+  </si>
+  <si>
+    <t>12668.6683263801</t>
+  </si>
+  <si>
+    <t>13344.5706070554</t>
+  </si>
+  <si>
+    <t>12129.6357854265</t>
+  </si>
+  <si>
+    <t>12636.6071562709</t>
+  </si>
+  <si>
+    <t>13474.7014620996</t>
+  </si>
+  <si>
+    <t>13307.2148606427</t>
+  </si>
+  <si>
+    <t>13809.8720511973</t>
+  </si>
+  <si>
+    <t>14362.1556614413</t>
+  </si>
+  <si>
+    <t>15087.2514335779</t>
+  </si>
+  <si>
+    <t>15651.118044539</t>
+  </si>
+  <si>
+    <t>16353.9240954902</t>
+  </si>
+  <si>
+    <t>17209.5845534414</t>
+  </si>
+  <si>
+    <t>17865.6408788889</t>
+  </si>
+  <si>
+    <t>17430.4445622656</t>
+  </si>
+  <si>
+    <t>18574.2996268691</t>
+  </si>
+  <si>
+    <t>19390</t>
+  </si>
+  <si>
+    <t>20134</t>
+  </si>
+  <si>
+    <t>20760</t>
+  </si>
+  <si>
+    <t>21683</t>
+  </si>
+  <si>
+    <t>22432</t>
+  </si>
+  <si>
+    <t>23053</t>
   </si>
   <si>
     <t>Description</t>
@@ -1799,7 +1856,7 @@
         <v>1900.0</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -1816,7 +1873,7 @@
         <v>1901.0</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84">
@@ -1833,7 +1890,7 @@
         <v>1902.0</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
@@ -1850,7 +1907,7 @@
         <v>1903.0</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86">
@@ -1867,7 +1924,7 @@
         <v>1904.0</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -1884,7 +1941,7 @@
         <v>1905.0</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
@@ -1901,7 +1958,7 @@
         <v>1906.0</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89">
@@ -1918,7 +1975,7 @@
         <v>1907.0</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
@@ -1935,7 +1992,7 @@
         <v>1908.0</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
@@ -1952,7 +2009,7 @@
         <v>1909.0</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
@@ -1969,7 +2026,7 @@
         <v>1910.0</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
@@ -1986,7 +2043,7 @@
         <v>1911.0</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
@@ -2003,7 +2060,7 @@
         <v>1912.0</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95">
@@ -2020,7 +2077,7 @@
         <v>1913.0</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
@@ -2037,7 +2094,7 @@
         <v>1914.0</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97">
@@ -2054,7 +2111,7 @@
         <v>1915.0</v>
       </c>
       <c r="E97" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98">
@@ -2071,7 +2128,7 @@
         <v>1916.0</v>
       </c>
       <c r="E98" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
@@ -2088,7 +2145,7 @@
         <v>1917.0</v>
       </c>
       <c r="E99" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
@@ -2105,7 +2162,7 @@
         <v>1918.0</v>
       </c>
       <c r="E100" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101">
@@ -2122,7 +2179,7 @@
         <v>1919.0</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
@@ -2139,7 +2196,7 @@
         <v>1920.0</v>
       </c>
       <c r="E102" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103">
@@ -2156,7 +2213,7 @@
         <v>1921.0</v>
       </c>
       <c r="E103" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104">
@@ -2173,7 +2230,7 @@
         <v>1922.0</v>
       </c>
       <c r="E104" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105">
@@ -2190,7 +2247,7 @@
         <v>1923.0</v>
       </c>
       <c r="E105" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106">
@@ -2207,7 +2264,7 @@
         <v>1924.0</v>
       </c>
       <c r="E106" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107">
@@ -2224,7 +2281,7 @@
         <v>1925.0</v>
       </c>
       <c r="E107" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108">
@@ -2241,7 +2298,7 @@
         <v>1926.0</v>
       </c>
       <c r="E108" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109">
@@ -2258,7 +2315,7 @@
         <v>1927.0</v>
       </c>
       <c r="E109" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110">
@@ -2275,7 +2332,7 @@
         <v>1928.0</v>
       </c>
       <c r="E110" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111">
@@ -2292,7 +2349,7 @@
         <v>1929.0</v>
       </c>
       <c r="E111" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112">
@@ -2309,7 +2366,7 @@
         <v>1930.0</v>
       </c>
       <c r="E112" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113">
@@ -2326,7 +2383,7 @@
         <v>1931.0</v>
       </c>
       <c r="E113" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114">
@@ -2343,7 +2400,7 @@
         <v>1932.0</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115">
@@ -2360,7 +2417,7 @@
         <v>1933.0</v>
       </c>
       <c r="E115" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116">
@@ -2377,7 +2434,7 @@
         <v>1934.0</v>
       </c>
       <c r="E116" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117">
@@ -2394,7 +2451,7 @@
         <v>1935.0</v>
       </c>
       <c r="E117" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118">
@@ -2411,7 +2468,7 @@
         <v>1936.0</v>
       </c>
       <c r="E118" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119">
@@ -2428,7 +2485,7 @@
         <v>1937.0</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120">
@@ -2445,7 +2502,7 @@
         <v>1938.0</v>
       </c>
       <c r="E120" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121">
@@ -2462,7 +2519,7 @@
         <v>1939.0</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122">
@@ -2479,7 +2536,7 @@
         <v>1940.0</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123">
@@ -2496,7 +2553,7 @@
         <v>1941.0</v>
       </c>
       <c r="E123" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="124">
@@ -2513,7 +2570,7 @@
         <v>1942.0</v>
       </c>
       <c r="E124" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="125">
@@ -2598,7 +2655,7 @@
         <v>1947.0</v>
       </c>
       <c r="E129" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130">
@@ -2615,7 +2672,7 @@
         <v>1948.0</v>
       </c>
       <c r="E130" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="131">
@@ -2632,7 +2689,7 @@
         <v>1949.0</v>
       </c>
       <c r="E131" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="132">
@@ -2649,7 +2706,7 @@
         <v>1950.0</v>
       </c>
       <c r="E132" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="133">
@@ -2666,7 +2723,7 @@
         <v>1951.0</v>
       </c>
       <c r="E133" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="134">
@@ -2683,7 +2740,7 @@
         <v>1952.0</v>
       </c>
       <c r="E134" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="135">
@@ -2700,7 +2757,7 @@
         <v>1953.0</v>
       </c>
       <c r="E135" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136">
@@ -2717,7 +2774,7 @@
         <v>1954.0</v>
       </c>
       <c r="E136" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="137">
@@ -2734,7 +2791,7 @@
         <v>1955.0</v>
       </c>
       <c r="E137" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138">
@@ -2751,7 +2808,7 @@
         <v>1956.0</v>
       </c>
       <c r="E138" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="139">
@@ -2768,7 +2825,7 @@
         <v>1957.0</v>
       </c>
       <c r="E139" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="140">
@@ -2785,7 +2842,7 @@
         <v>1958.0</v>
       </c>
       <c r="E140" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="141">
@@ -2802,7 +2859,7 @@
         <v>1959.0</v>
       </c>
       <c r="E141" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="142">
@@ -2819,7 +2876,7 @@
         <v>1960.0</v>
       </c>
       <c r="E142" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="143">
@@ -2836,7 +2893,7 @@
         <v>1961.0</v>
       </c>
       <c r="E143" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="144">
@@ -2853,7 +2910,7 @@
         <v>1962.0</v>
       </c>
       <c r="E144" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="145">
@@ -2870,7 +2927,7 @@
         <v>1963.0</v>
       </c>
       <c r="E145" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="146">
@@ -2887,7 +2944,7 @@
         <v>1964.0</v>
       </c>
       <c r="E146" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="147">
@@ -2904,7 +2961,7 @@
         <v>1965.0</v>
       </c>
       <c r="E147" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="148">
@@ -2921,7 +2978,7 @@
         <v>1966.0</v>
       </c>
       <c r="E148" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="149">
@@ -2938,7 +2995,7 @@
         <v>1967.0</v>
       </c>
       <c r="E149" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="150">
@@ -2955,7 +3012,7 @@
         <v>1968.0</v>
       </c>
       <c r="E150" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="151">
@@ -2972,7 +3029,7 @@
         <v>1969.0</v>
       </c>
       <c r="E151" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="152">
@@ -2989,7 +3046,7 @@
         <v>1970.0</v>
       </c>
       <c r="E152" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="153">
@@ -3006,7 +3063,7 @@
         <v>1971.0</v>
       </c>
       <c r="E153" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="154">
@@ -3023,7 +3080,7 @@
         <v>1972.0</v>
       </c>
       <c r="E154" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="155">
@@ -3040,7 +3097,7 @@
         <v>1973.0</v>
       </c>
       <c r="E155" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="156">
@@ -3057,7 +3114,7 @@
         <v>1974.0</v>
       </c>
       <c r="E156" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="157">
@@ -3074,7 +3131,7 @@
         <v>1975.0</v>
       </c>
       <c r="E157" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="158">
@@ -3091,7 +3148,7 @@
         <v>1976.0</v>
       </c>
       <c r="E158" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="159">
@@ -3108,7 +3165,7 @@
         <v>1977.0</v>
       </c>
       <c r="E159" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="160">
@@ -3125,7 +3182,7 @@
         <v>1978.0</v>
       </c>
       <c r="E160" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="161">
@@ -3142,7 +3199,7 @@
         <v>1979.0</v>
       </c>
       <c r="E161" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="162">
@@ -3159,7 +3216,7 @@
         <v>1980.0</v>
       </c>
       <c r="E162" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="163">
@@ -3176,7 +3233,7 @@
         <v>1981.0</v>
       </c>
       <c r="E163" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="164">
@@ -3193,7 +3250,7 @@
         <v>1982.0</v>
       </c>
       <c r="E164" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="165">
@@ -3210,7 +3267,7 @@
         <v>1983.0</v>
       </c>
       <c r="E165" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="166">
@@ -3227,7 +3284,7 @@
         <v>1984.0</v>
       </c>
       <c r="E166" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="167">
@@ -3244,7 +3301,7 @@
         <v>1985.0</v>
       </c>
       <c r="E167" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="168">
@@ -3261,7 +3318,7 @@
         <v>1986.0</v>
       </c>
       <c r="E168" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="169">
@@ -3278,7 +3335,7 @@
         <v>1987.0</v>
       </c>
       <c r="E169" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="170">
@@ -3295,7 +3352,7 @@
         <v>1988.0</v>
       </c>
       <c r="E170" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="171">
@@ -3312,7 +3369,7 @@
         <v>1989.0</v>
       </c>
       <c r="E171" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="172">
@@ -3329,7 +3386,7 @@
         <v>1990.0</v>
       </c>
       <c r="E172" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="173">
@@ -3346,7 +3403,7 @@
         <v>1991.0</v>
       </c>
       <c r="E173" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="174">
@@ -3363,7 +3420,7 @@
         <v>1992.0</v>
       </c>
       <c r="E174" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="175">
@@ -3380,7 +3437,7 @@
         <v>1993.0</v>
       </c>
       <c r="E175" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="176">
@@ -3397,7 +3454,7 @@
         <v>1994.0</v>
       </c>
       <c r="E176" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="177">
@@ -3414,7 +3471,7 @@
         <v>1995.0</v>
       </c>
       <c r="E177" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178">
@@ -3431,7 +3488,7 @@
         <v>1996.0</v>
       </c>
       <c r="E178" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="179">
@@ -3448,7 +3505,7 @@
         <v>1997.0</v>
       </c>
       <c r="E179" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="180">
@@ -3465,7 +3522,7 @@
         <v>1998.0</v>
       </c>
       <c r="E180" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="181">
@@ -3482,7 +3539,7 @@
         <v>1999.0</v>
       </c>
       <c r="E181" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="182">
@@ -3499,7 +3556,7 @@
         <v>2000.0</v>
       </c>
       <c r="E182" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="183">
@@ -3516,7 +3573,7 @@
         <v>2001.0</v>
       </c>
       <c r="E183" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="184">
@@ -3533,7 +3590,7 @@
         <v>2002.0</v>
       </c>
       <c r="E184" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="185">
@@ -3550,7 +3607,7 @@
         <v>2003.0</v>
       </c>
       <c r="E185" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="186">
@@ -3567,7 +3624,7 @@
         <v>2004.0</v>
       </c>
       <c r="E186" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="187">
@@ -3584,7 +3641,7 @@
         <v>2005.0</v>
       </c>
       <c r="E187" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="188">
@@ -3601,7 +3658,7 @@
         <v>2006.0</v>
       </c>
       <c r="E188" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="189">
@@ -3618,7 +3675,7 @@
         <v>2007.0</v>
       </c>
       <c r="E189" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="190">
@@ -3635,7 +3692,7 @@
         <v>2008.0</v>
       </c>
       <c r="E190" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="191">
@@ -3652,7 +3709,7 @@
         <v>2009.0</v>
       </c>
       <c r="E191" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="192">
@@ -3669,7 +3726,109 @@
         <v>2010.0</v>
       </c>
       <c r="E192" t="s">
-        <v>102</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>458.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>458.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>458.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>458.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>458.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>458.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3687,50 +3846,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
